--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3858339.632546576</v>
+        <v>3855847.683222738</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7492172.461962104</v>
+        <v>7492172.461962102</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234414</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
         <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548841</v>
+        <v>156.6862937548842</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>19.4586259445848</v>
+        <v>62.22601572607249</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387724</v>
       </c>
       <c r="T2" t="n">
         <v>216.9882312337391</v>
@@ -716,16 +716,16 @@
         <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>157.6444810661268</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>124.6769503411132</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>21.83806240156339</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.69429571031455</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870431</v>
+        <v>53.80849853870438</v>
       </c>
       <c r="S3" t="n">
         <v>157.8170057799447</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866936</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>122.4298228031437</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>177.7682161852972</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>74.08205005537711</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>224.7068582302611</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059541</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1032,7 +1032,7 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
-        <v>162.2605966966365</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>49.94675160484172</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>184.6739744009184</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>205.1317864450908</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>103.2789529957481</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9661877488788</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172148</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.8909947756166</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>130.7323655469555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>130.7323655469555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881279</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656053</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356917</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.841303355259</v>
+        <v>962.8652392502564</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.878786414847</v>
+        <v>962.8652392502564</v>
       </c>
       <c r="D2" t="n">
-        <v>944.6130878080967</v>
+        <v>962.8652392502564</v>
       </c>
       <c r="E2" t="n">
-        <v>558.8248352098524</v>
+        <v>962.8652392502564</v>
       </c>
       <c r="F2" t="n">
-        <v>551.8793344606489</v>
+        <v>955.919738501053</v>
       </c>
       <c r="G2" t="n">
         <v>537.8313468421195</v>
@@ -4325,55 +4325,55 @@
         <v>209.3607355237637</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710344</v>
+        <v>156.4961545710335</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005026</v>
+        <v>435.2148351005015</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311665</v>
+        <v>833.2666318311651</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537228</v>
+        <v>1292.782497537226</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813647</v>
+        <v>1745.101812813644</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132817</v>
+        <v>2127.026478132814</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935772</v>
+        <v>2415.315960935769</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648583</v>
+        <v>2554.58759664858</v>
       </c>
       <c r="R2" t="n">
-        <v>2534.93241892678</v>
+        <v>2491.733035309112</v>
       </c>
       <c r="S2" t="n">
-        <v>2534.93241892678</v>
+        <v>2312.716599815403</v>
       </c>
       <c r="T2" t="n">
-        <v>2315.752387377549</v>
+        <v>2093.536568266171</v>
       </c>
       <c r="U2" t="n">
-        <v>2061.980635331071</v>
+        <v>1839.764816219693</v>
       </c>
       <c r="V2" t="n">
-        <v>2061.980635331071</v>
+        <v>1508.701928876123</v>
       </c>
       <c r="W2" t="n">
-        <v>2061.980635331071</v>
+        <v>1508.701928876123</v>
       </c>
       <c r="X2" t="n">
-        <v>2061.980635331071</v>
+        <v>1349.465079314378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1671.841303355259</v>
+        <v>1349.465079314378</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.2866238777647</v>
+        <v>882.5656474219577</v>
       </c>
       <c r="C3" t="n">
-        <v>665.8335945966377</v>
+        <v>708.1126181408307</v>
       </c>
       <c r="D3" t="n">
-        <v>516.8991849353864</v>
+        <v>559.1782084795794</v>
       </c>
       <c r="E3" t="n">
-        <v>357.6617299299309</v>
+        <v>399.9407534741239</v>
       </c>
       <c r="F3" t="n">
-        <v>211.1271719568159</v>
+        <v>253.4061955010089</v>
       </c>
       <c r="G3" t="n">
-        <v>73.15040082343972</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="H3" t="n">
-        <v>51.09175193297165</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687513</v>
+        <v>120.1765123687511</v>
       </c>
       <c r="K3" t="n">
-        <v>364.874214727055</v>
+        <v>364.8742147270547</v>
       </c>
       <c r="L3" t="n">
-        <v>598.1646481335598</v>
+        <v>755.3048694066752</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360709</v>
+        <v>1262.898249633824</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358687</v>
+        <v>1799.633129631802</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.08478563556</v>
+        <v>2224.225006908674</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153974</v>
+        <v>2390.854132153971</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648583</v>
+        <v>2554.58759664858</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922619</v>
+        <v>2500.235577922615</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.82446097318</v>
+        <v>2340.824460973176</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.6772342574</v>
+        <v>2141.677234257397</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828264</v>
+        <v>1913.50322482826</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596521</v>
+        <v>1678.351116596518</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868319</v>
+        <v>1424.113759868316</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.262259662787</v>
+        <v>1216.262259662783</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897833</v>
+        <v>1008.50196089783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="C4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="D4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771865</v>
+        <v>101.0304570771863</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703278</v>
+        <v>220.4612409703274</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486108</v>
+        <v>356.7733802486104</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493213</v>
+        <v>495.2789379493207</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455659</v>
+        <v>607.1949427455651</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071426</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071426</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071426</v>
+        <v>679.4377367071417</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071426</v>
+        <v>464.1754096498753</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071426</v>
+        <v>340.5089219699322</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071426</v>
+        <v>340.5089219699322</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071426</v>
+        <v>340.5089219699322</v>
       </c>
       <c r="W4" t="n">
-        <v>499.8738819745191</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="X4" t="n">
-        <v>271.8843310765018</v>
+        <v>51.09175193297159</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.09175193297165</v>
+        <v>51.09175193297159</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>986.045704029513</v>
+        <v>775.2510328661099</v>
       </c>
       <c r="C5" t="n">
-        <v>617.0831870891013</v>
+        <v>775.2510328661099</v>
       </c>
       <c r="D5" t="n">
-        <v>258.8174884823508</v>
+        <v>775.2510328661099</v>
       </c>
       <c r="E5" t="n">
-        <v>258.8174884823508</v>
+        <v>389.4627802678656</v>
       </c>
       <c r="F5" t="n">
-        <v>183.9871348910608</v>
+        <v>382.5172795186621</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>322.4498401563318</v>
       </c>
       <c r="L5" t="n">
-        <v>707.8574493821779</v>
+        <v>875.263098402531</v>
       </c>
       <c r="M5" t="n">
-        <v>1339.57526036549</v>
+        <v>1061.962511227939</v>
       </c>
       <c r="N5" t="n">
-        <v>1966.882928425336</v>
+        <v>1340.687116518883</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129033</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2347.539466667866</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>2093.847763413017</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="V5" t="n">
-        <v>1762.784876069446</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="W5" t="n">
-        <v>1762.784876069446</v>
+        <v>1925.455963167123</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.784876069446</v>
+        <v>1551.990204906043</v>
       </c>
       <c r="Y5" t="n">
-        <v>1372.645544093635</v>
+        <v>1161.850872930232</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4638,10 +4638,10 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
@@ -4650,19 +4650,19 @@
         <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>636.5640407464026</v>
+        <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1270.743024525441</v>
+        <v>1183.193318951432</v>
       </c>
       <c r="N6" t="n">
-        <v>1469.399766178106</v>
+        <v>1381.850060604097</v>
       </c>
       <c r="O6" t="n">
-        <v>2018.835774930829</v>
+        <v>1931.28606935682</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4674,22 +4674,22 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>420.7508731555606</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>251.8146902276537</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>101.698050815318</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>458.578733793269</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.181468027348</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="X7" t="n">
-        <v>823.1919171293305</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y7" t="n">
-        <v>602.3993379858003</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1449.505074804839</v>
+        <v>983.638880763154</v>
       </c>
       <c r="C8" t="n">
-        <v>1080.542557864427</v>
+        <v>614.6763638227424</v>
       </c>
       <c r="D8" t="n">
-        <v>722.276859257677</v>
+        <v>614.6763638227424</v>
       </c>
       <c r="E8" t="n">
-        <v>336.4886066594327</v>
+        <v>228.8881112244981</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>221.9426104752947</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.104914868961</v>
+        <v>983.638880763154</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844851</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159568</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751767</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1349.048382530606</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1126.069901725341</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,49 +5027,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,40 +5285,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.244907039234</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.244907039234</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.169680383432</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.485192177545</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.068022140585</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.078471242567</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5598,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2314.910189088387</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>813.3497091711303</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408905</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408905</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2314.910189088387</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711303</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,7 +6731,7 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7412,19 +7412,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,7 +7445,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>212.1128490679885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>159.7352724044654</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>85.24282060501184</v>
       </c>
       <c r="O5" t="n">
-        <v>282.3928579664016</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378117</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>206.1620907894543</v>
+        <v>294.5961368238072</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9556134883069376</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.007309792134</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1352912260279595</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.29392045468913</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.29392045468913</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>43.72409101823415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.4949402405077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877455</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>4.186823682520725</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748902</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748903</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977564</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="M2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="N2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977561</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161984</v>
+        <v>548460.0746161975</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299253</v>
+        <v>225009.9816299261</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843804</v>
+        <v>167098.1292843802</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243596554</v>
+        <v>498.7619243598895</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198059</v>
+        <v>247452.3619198062</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.368461719701</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719688</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.36846171965</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719629</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.36846171965</v>
-      </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719651</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719697</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.368461719696</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719708</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719677</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946039</v>
+        <v>80023.31371946033</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75420.02463778871</v>
+        <v>-75420.02463778752</v>
       </c>
       <c r="C6" t="n">
-        <v>291680.1725485467</v>
+        <v>291680.1725485458</v>
       </c>
       <c r="D6" t="n">
         <v>282779.0801080607</v>
       </c>
       <c r="E6" t="n">
-        <v>170852.5947875828</v>
+        <v>170817.8568621476</v>
       </c>
       <c r="F6" t="n">
-        <v>678338.0364121287</v>
+        <v>678303.2984866936</v>
       </c>
       <c r="G6" t="n">
-        <v>678338.0364121296</v>
+        <v>678303.2984866936</v>
       </c>
       <c r="H6" t="n">
-        <v>678338.0364121289</v>
+        <v>678303.2984866935</v>
       </c>
       <c r="I6" t="n">
-        <v>678338.0364121293</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="J6" t="n">
-        <v>511239.9071277487</v>
+        <v>511205.1692023134</v>
       </c>
       <c r="K6" t="n">
-        <v>677839.2744877696</v>
+        <v>677804.536562334</v>
       </c>
       <c r="L6" t="n">
-        <v>678338.0364121292</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="M6" t="n">
-        <v>545730.7426832023</v>
+        <v>545696.0047577664</v>
       </c>
       <c r="N6" t="n">
-        <v>678338.0364121293</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="O6" t="n">
-        <v>678338.0364121293</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="P6" t="n">
-        <v>678338.0364121293</v>
+        <v>678303.2984866936</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817402</v>
+        <v>347.0634059817396</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621457</v>
+        <v>638.6468991621449</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817402</v>
+        <v>347.0634059817396</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563249</v>
+        <v>246.4126943563255</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621457</v>
+        <v>638.6468991621449</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937893038</v>
+        <v>1.937932937893947</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621457</v>
+        <v>638.6468991621447</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937893038</v>
+        <v>1.937932937893947</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621457</v>
+        <v>638.6468991621449</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937893038</v>
+        <v>1.937932937893947</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>42.76738978148754</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387723</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>212.0866196123422</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>41.85623330875418</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>83.18763070312372</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031451</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601715</v>
+        <v>49.11144063601723</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845162</v>
+        <v>33.75546894845171</v>
       </c>
       <c r="R4" t="n">
         <v>149.1528076724861</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866936</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>102.8416715298687</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>108.7547821512938</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>332.7939956863343</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>124.5341104871519</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278847</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>70.53999045278877</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>96.48721104172745</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27831,13 +27831,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>101.8490239356726</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>201.7442592966206</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>308.2687497772058</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.69627261285873</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28327,10 +28327,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
     </row>
     <row r="33">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790914</v>
+        <v>1.395229772790912</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059495</v>
+        <v>14.28889691059493</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552177</v>
+        <v>53.78959581552169</v>
       </c>
       <c r="J2" t="n">
-        <v>118.418382928413</v>
+        <v>118.4183829284128</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106524</v>
+        <v>177.4784592106521</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697024</v>
+        <v>220.177722369702</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415728</v>
+        <v>244.9901398415724</v>
       </c>
       <c r="N2" t="n">
-        <v>248.954336433515</v>
+        <v>248.9543364335146</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803253</v>
+        <v>235.0805203803249</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645496</v>
+        <v>200.6357853645493</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.669119126475</v>
+        <v>150.6691191264747</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507735</v>
+        <v>87.64310221507719</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747299</v>
+        <v>31.79379844747294</v>
       </c>
       <c r="T2" t="n">
-        <v>6.10761833039223</v>
+        <v>6.10761833039222</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232731</v>
+        <v>0.1116183818232729</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682713</v>
+        <v>0.7465137411682701</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809359</v>
+        <v>7.209751131809346</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110057</v>
+        <v>25.70233714110053</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502516</v>
+        <v>70.52917762502504</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832993</v>
+        <v>120.5455982832991</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426986</v>
+        <v>162.0884331426983</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600484</v>
+        <v>189.1495562600481</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821812</v>
+        <v>194.1557821821809</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857685</v>
+        <v>177.6146092857682</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323869</v>
+        <v>142.5513827323866</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351478</v>
+        <v>95.29182422351462</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393883</v>
+        <v>46.34933561393876</v>
       </c>
       <c r="S3" t="n">
-        <v>13.8661653238931</v>
+        <v>13.86616532389308</v>
       </c>
       <c r="T3" t="n">
-        <v>3.00897424620018</v>
+        <v>3.008974246200175</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949156</v>
+        <v>0.04911274612949147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736298</v>
+        <v>0.6258520435736287</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772822</v>
+        <v>5.564393623772812</v>
       </c>
       <c r="I4" t="n">
-        <v>18.8210778194688</v>
+        <v>18.82107781946877</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065562</v>
+        <v>44.24773948065555</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519079</v>
+        <v>72.71262833519067</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730129</v>
+        <v>93.04713018730115</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218269</v>
+        <v>98.10515261218254</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886287</v>
+        <v>95.77243135886272</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711636</v>
+        <v>88.46134157711622</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821425</v>
+        <v>75.69395988821412</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324276</v>
+        <v>52.40657430324268</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468338</v>
+        <v>28.14058370468334</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027862</v>
+        <v>10.9068942502786</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269144</v>
+        <v>2.67409509526914</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0341373841949253</v>
+        <v>0.03413738419492524</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,25 +33500,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738004</v>
+        <v>106.4690935738003</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368366</v>
+        <v>281.5340207368363</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501656</v>
+        <v>402.0725219501652</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071325</v>
+        <v>464.1574401071322</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489082</v>
+        <v>456.8881972489078</v>
       </c>
       <c r="O2" t="n">
-        <v>385.782490221384</v>
+        <v>385.7824902213836</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807627</v>
+        <v>291.2014977807623</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119301</v>
+        <v>140.6784199119299</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.7825862987673</v>
+        <v>69.78258629876719</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215189</v>
+        <v>247.1693963215187</v>
       </c>
       <c r="L3" t="n">
-        <v>235.6469024308129</v>
+        <v>394.3743986662833</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880299</v>
+        <v>512.7205860880297</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424015</v>
+        <v>542.1564444424012</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180536</v>
+        <v>428.8806841180533</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579938</v>
+        <v>168.3122477225218</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733423</v>
+        <v>165.3873378733422</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930793</v>
+        <v>50.44313650930782</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476174</v>
+        <v>120.6371554476173</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740233</v>
+        <v>137.6890295740231</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380915</v>
+        <v>139.9046037380913</v>
       </c>
       <c r="O4" t="n">
-        <v>113.046469491156</v>
+        <v>113.0464694911559</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310774</v>
+        <v>72.97251915310761</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
@@ -34942,19 +34942,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>281.540005344388</v>
       </c>
       <c r="O5" t="n">
-        <v>454.2807623269668</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
@@ -35030,7 +35030,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>315.9495933422814</v>
+        <v>404.3836393766343</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35252,28 +35252,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>187.5431097317917</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>553.2044093850079</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
